--- a/Marketing_Data.xlsx
+++ b/Marketing_Data.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="20">
   <si>
     <t>Telefon</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
 </sst>
 </file>
@@ -4574,3946 +4577,4397 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7265625" customWidth="1"/>
     <col min="7" max="7" width="13.90625" customWidth="1"/>
     <col min="8" max="8" width="6.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>7832</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>184</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
         <v>28.73</v>
       </c>
-      <c r="F2">
-        <v>-999</v>
-      </c>
       <c r="G2">
+        <v>-999</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>8002</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>181</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>43.01</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>72.02</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>3980</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>187</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>48.13</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>88.49</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>6898</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>176</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>48.15</v>
       </c>
-      <c r="F5">
-        <v>-999</v>
-      </c>
       <c r="G5">
+        <v>-999</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>5129</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>171</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>48.49</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>76.260000000000005</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>4399</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>194</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>53.72</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>93.1</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>8647</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>180</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="E8">
-        <v>-999</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>-999</v>
       </c>
       <c r="G8">
+        <v>-999</v>
+      </c>
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>5567</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>181</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
         <v>58.99</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>76.739999999999995</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>9863</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>-999</v>
-      </c>
       <c r="D10">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="E10">
-        <v>-999</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>-999</v>
       </c>
       <c r="G10">
+        <v>-999</v>
+      </c>
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>3278</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>188</v>
       </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
         <v>60.81</v>
       </c>
-      <c r="F11">
-        <v>-999</v>
-      </c>
       <c r="G11">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>6032</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>187</v>
       </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
       <c r="E12">
-        <v>-999</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>-999</v>
       </c>
       <c r="G12">
+        <v>-999</v>
+      </c>
+      <c r="H12">
         <v>4</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>3718</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>188</v>
       </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
         <v>63.98</v>
       </c>
-      <c r="F13">
-        <v>-999</v>
-      </c>
       <c r="G13">
+        <v>-999</v>
+      </c>
+      <c r="H13">
         <v>4</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>3173</v>
+      </c>
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>177</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>64.03</v>
       </c>
-      <c r="F14">
-        <v>-999</v>
-      </c>
       <c r="G14">
+        <v>-999</v>
+      </c>
+      <c r="H14">
         <v>5</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
+        <v>6233</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>182</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
       <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
         <v>64.709999999999994</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>74.33</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>4</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
+        <v>9382</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>185</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
       <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
         <v>68.19</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>67.41</v>
       </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
       <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
+        <v>8335</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>185</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
       <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
         <v>69.39</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>84.42</v>
       </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
+        <v>3867</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>185</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
       <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
         <v>69.63</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>66.760000000000005</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
+        <v>3355</v>
+      </c>
+      <c r="C19">
         <v>0</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>182</v>
       </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
       <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
         <v>70</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>70.05</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>4</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
+        <v>7231</v>
+      </c>
+      <c r="C20">
         <v>0</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>181</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
       <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
         <v>70.87</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>74.959999999999994</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>4</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
+        <v>8665</v>
+      </c>
+      <c r="C21">
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>191</v>
       </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
         <v>71.61</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>96.04</v>
       </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
       <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
+        <v>6272</v>
+      </c>
+      <c r="C22">
         <v>0</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>198</v>
       </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
       <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
         <v>76.63</v>
       </c>
-      <c r="F22">
-        <v>-999</v>
-      </c>
       <c r="G22">
+        <v>-999</v>
+      </c>
+      <c r="H22">
         <v>6</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
+        <v>7087</v>
+      </c>
+      <c r="C23">
         <v>0</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>183</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
       <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
         <v>77.19</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>72.349999999999994</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>5</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
+        <v>5208</v>
+      </c>
+      <c r="C24">
         <v>0</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>185</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
       <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
         <v>77.290000000000006</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>70.510000000000005</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>4</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
+        <v>9819</v>
+      </c>
+      <c r="C25">
         <v>0</v>
       </c>
-      <c r="C25">
-        <v>-999</v>
-      </c>
       <c r="D25">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
         <v>77.33</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>85.58</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>4</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
+        <v>5551</v>
+      </c>
+      <c r="C26">
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>176</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
       <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>77.430000000000007</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>60.67</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>5</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
+        <v>6466</v>
+      </c>
+      <c r="C27">
         <v>0</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>187</v>
       </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
       <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
         <v>77.67</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>85.34</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>4</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
+        <v>8737</v>
+      </c>
+      <c r="C28">
         <v>0</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>181</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
       <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <v>78.36</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>72.260000000000005</v>
       </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
       <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
+        <v>3298</v>
+      </c>
+      <c r="C29">
         <v>0</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>192</v>
       </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
       <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
         <v>78.98</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>85.65</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>5</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
+        <v>6705</v>
+      </c>
+      <c r="C30">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>185</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
       <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
         <v>79.7</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>68.7</v>
       </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
       <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
+        <v>5690</v>
+      </c>
+      <c r="C31">
         <v>0</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>174</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
       <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
         <v>81.89</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>71.97</v>
       </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
       <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
+        <v>5212</v>
+      </c>
+      <c r="C32">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>183</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
       <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
         <v>82.69</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>78</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>5</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
+        <v>5105</v>
+      </c>
+      <c r="C33">
         <v>0</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>182</v>
       </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
       <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
         <v>82.89</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>72.39</v>
       </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
       <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
+        <v>3682</v>
+      </c>
+      <c r="C34">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>183</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
       <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
         <v>83.01</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>82.33</v>
       </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
       <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
+        <v>7677</v>
+      </c>
+      <c r="C35">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>182</v>
       </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
       <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
         <v>83.77</v>
       </c>
-      <c r="F35">
-        <v>-999</v>
-      </c>
       <c r="G35">
+        <v>-999</v>
+      </c>
+      <c r="H35">
         <v>4</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
+        <v>5728</v>
+      </c>
+      <c r="C36">
         <v>0</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>182</v>
       </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
       <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
         <v>84.97</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>57.22</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>5</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
+        <v>6820</v>
+      </c>
+      <c r="C37">
         <v>0</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>196</v>
       </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
       <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
         <v>85.47</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>82.35</v>
       </c>
-      <c r="G37">
-        <v>3</v>
-      </c>
       <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
+        <v>7532</v>
+      </c>
+      <c r="C38">
         <v>0</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>181</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
       <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
         <v>85.48</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>73.45</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>5</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
+        <v>5577</v>
+      </c>
+      <c r="C39">
         <v>0</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>175</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
       <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>85.71</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>57.76</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>5</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
+        <v>4963</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>187</v>
       </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
       <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
         <v>85.79</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>84.47</v>
       </c>
-      <c r="G40">
-        <v>3</v>
-      </c>
       <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
+        <v>8806</v>
+      </c>
+      <c r="C41">
         <v>0</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>187</v>
       </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
       <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
         <v>86.16</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>86.29</v>
       </c>
-      <c r="G41">
-        <v>-999</v>
-      </c>
       <c r="H41">
+        <v>-999</v>
+      </c>
+      <c r="I41">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
+        <v>4530</v>
+      </c>
+      <c r="C42">
         <v>0</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>195</v>
       </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
       <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
         <v>86.48</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>82.45</v>
       </c>
-      <c r="G42">
-        <v>-999</v>
-      </c>
       <c r="H42">
+        <v>-999</v>
+      </c>
+      <c r="I42">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
+        <v>4216</v>
+      </c>
+      <c r="C43">
         <v>0</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>177</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
       <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
         <v>86.72</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>77.14</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>4</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
+        <v>6850</v>
+      </c>
+      <c r="C44">
         <v>0</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>181</v>
       </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
       <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
         <v>86.84</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>54.48</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>5</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
+        <v>4098</v>
+      </c>
+      <c r="C45">
         <v>0</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>185</v>
       </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
       <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
         <v>87.1</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>79.84</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>5</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
+        <v>5213</v>
+      </c>
+      <c r="C46">
         <v>0</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>190</v>
       </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
       <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
         <v>87.37</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>94.57</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>6</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
+        <v>9012</v>
+      </c>
+      <c r="C47">
         <v>0</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>184</v>
       </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
       <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
         <v>87.98</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>69.040000000000006</v>
       </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
       <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
+        <v>4380</v>
+      </c>
+      <c r="C48">
         <v>0</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>182</v>
       </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
       <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
         <v>88.74</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>74.739999999999995</v>
       </c>
-      <c r="G48">
-        <v>3</v>
-      </c>
       <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
+        <v>4256</v>
+      </c>
+      <c r="C49">
         <v>0</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>185</v>
       </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
       <c r="E49">
-        <v>-999</v>
+        <v>2</v>
       </c>
       <c r="F49">
+        <v>-999</v>
+      </c>
+      <c r="G49">
         <v>62.3</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>5</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
+        <v>3780</v>
+      </c>
+      <c r="C50">
         <v>0</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>183</v>
       </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
       <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
         <v>91.47</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>77.02</v>
       </c>
-      <c r="G50">
-        <v>3</v>
-      </c>
       <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>4446</v>
       </c>
       <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
         <v>172</v>
       </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
       <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
         <v>91.54</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>63.66</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>6</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
+        <v>9408</v>
+      </c>
+      <c r="C52">
         <v>0</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>183</v>
       </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
       <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
         <v>91.88</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>82.98</v>
       </c>
-      <c r="G52">
-        <v>3</v>
-      </c>
       <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
+        <v>7630</v>
+      </c>
+      <c r="C53">
         <v>0</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>188</v>
       </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
       <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
         <v>91.9</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>88.79</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>4</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
+        <v>4999</v>
+      </c>
+      <c r="C54">
         <v>0</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>188</v>
       </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
       <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
         <v>93.75</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>92.55</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>6</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>5349</v>
       </c>
       <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
         <v>170</v>
       </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
       <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
         <v>95.55</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>60.41</v>
       </c>
-      <c r="G55">
-        <v>3</v>
-      </c>
       <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
+        <v>4322</v>
+      </c>
+      <c r="C56">
         <v>0</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>189</v>
       </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
       <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
         <v>97.4</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>90.48</v>
       </c>
-      <c r="G56">
-        <v>3</v>
-      </c>
       <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
+        <v>3660</v>
+      </c>
+      <c r="C57">
         <v>0</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>186</v>
       </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
       <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
         <v>97.71</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>72.959999999999994</v>
       </c>
-      <c r="G57">
-        <v>3</v>
-      </c>
       <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
+        <v>3566</v>
+      </c>
+      <c r="C58">
         <v>0</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>181</v>
       </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
       <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
         <v>98.8</v>
       </c>
-      <c r="F58">
-        <v>-999</v>
-      </c>
       <c r="G58">
-        <v>3</v>
+        <v>-999</v>
       </c>
       <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
+        <v>3190</v>
+      </c>
+      <c r="C59">
         <v>0</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>182</v>
       </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
       <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
         <v>98.98</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>74.38</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>5</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>9837</v>
       </c>
       <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
         <v>174</v>
       </c>
-      <c r="D60">
-        <v>3</v>
-      </c>
       <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
         <v>99.31</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>73.48</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>4</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>3010</v>
       </c>
       <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
         <v>176</v>
       </c>
-      <c r="D61">
-        <v>3</v>
-      </c>
       <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
         <v>99.94</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>74.680000000000007</v>
       </c>
-      <c r="G61">
-        <v>3</v>
-      </c>
       <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
+        <v>8599</v>
+      </c>
+      <c r="C62">
         <v>0</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>176</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
       <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
         <v>100.63</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>65.16</v>
       </c>
-      <c r="G62">
-        <v>2</v>
-      </c>
       <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
+        <v>8790</v>
+      </c>
+      <c r="C63">
         <v>0</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>184</v>
       </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
       <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
         <v>102.08</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>69.099999999999994</v>
       </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
       <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>4579</v>
       </c>
       <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
         <v>167</v>
       </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
       <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
         <v>104.08</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>65.010000000000005</v>
       </c>
-      <c r="G64">
-        <v>3</v>
-      </c>
       <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>5246</v>
       </c>
       <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
         <v>166</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
       <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
         <v>104.23</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>54.09</v>
       </c>
-      <c r="G65">
-        <v>7</v>
-      </c>
       <c r="H65">
+        <v>7</v>
+      </c>
+      <c r="I65">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
+        <v>3678</v>
+      </c>
+      <c r="C66">
         <v>0</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>182</v>
       </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
       <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
         <v>104.89</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>75.48</v>
       </c>
-      <c r="G66">
-        <v>3</v>
-      </c>
       <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
+        <v>9542</v>
+      </c>
+      <c r="C67">
         <v>0</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>185</v>
       </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
       <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
         <v>104.94</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>64.790000000000006</v>
       </c>
-      <c r="G67">
-        <v>7</v>
-      </c>
       <c r="H67">
+        <v>7</v>
+      </c>
+      <c r="I67">
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>3952</v>
       </c>
       <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
         <v>166</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
       <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
         <v>105.88</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>48.25</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>4</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>5522</v>
       </c>
       <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
         <v>166</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
       <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
         <v>106.2</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>57.18</v>
       </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
       <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
+        <v>5962</v>
+      </c>
+      <c r="C70">
         <v>0</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>193</v>
       </c>
-      <c r="D70">
-        <v>3</v>
-      </c>
       <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
         <v>106.38</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>82.53</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>5</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
+        <v>7761</v>
+      </c>
+      <c r="C71">
         <v>0</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>184</v>
       </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
       <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
         <v>107.62</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>72.400000000000006</v>
       </c>
-      <c r="G71">
-        <v>2</v>
-      </c>
       <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
+        <v>3214</v>
+      </c>
+      <c r="C72">
         <v>0</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>181</v>
       </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
       <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
         <v>107.66</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>66.180000000000007</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>6</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>5553</v>
       </c>
       <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
         <v>172</v>
       </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
       <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
         <v>107.79</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>67.33</v>
       </c>
-      <c r="G73">
-        <v>3</v>
-      </c>
       <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
+        <v>5758</v>
+      </c>
+      <c r="C74">
         <v>0</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>179</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
       <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
         <v>109.86</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>64.22</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>5</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
+        <v>9193</v>
+      </c>
+      <c r="C75">
         <v>0</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>182</v>
       </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
       <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
         <v>111.59</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>70.790000000000006</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>5</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>6171</v>
       </c>
       <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
         <v>173</v>
       </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
       <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
         <v>112.84</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>67.19</v>
       </c>
-      <c r="G76">
-        <v>2</v>
-      </c>
       <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>7124</v>
       </c>
       <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
         <v>177</v>
       </c>
-      <c r="D77">
-        <v>3</v>
-      </c>
       <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
         <v>113.17</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>70.59</v>
       </c>
-      <c r="G77">
-        <v>7</v>
-      </c>
       <c r="H77">
+        <v>7</v>
+      </c>
+      <c r="I77">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>9875</v>
       </c>
       <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
         <v>166</v>
       </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
       <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
         <v>113.64</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>47.39</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>5</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
+        <v>6715</v>
+      </c>
+      <c r="C79">
         <v>0</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>178</v>
       </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
       <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
         <v>113.82</v>
       </c>
-      <c r="F79">
-        <v>-999</v>
-      </c>
       <c r="G79">
+        <v>-999</v>
+      </c>
+      <c r="H79">
         <v>10</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
+        <v>7031</v>
+      </c>
+      <c r="C80">
         <v>0</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>184</v>
       </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
       <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
         <v>113.85</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>69.540000000000006</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>6</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>3615</v>
       </c>
       <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
         <v>165</v>
       </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
       <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
         <v>115.01</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>62.74</v>
       </c>
-      <c r="G81">
-        <v>8</v>
-      </c>
       <c r="H81">
+        <v>8</v>
+      </c>
+      <c r="I81">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>8896</v>
       </c>
       <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
         <v>164</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
       <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
         <v>116.11</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>49.33</v>
       </c>
-      <c r="G82">
-        <v>7</v>
-      </c>
       <c r="H82">
+        <v>7</v>
+      </c>
+      <c r="I82">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>4676</v>
       </c>
       <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
         <v>170</v>
       </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
       <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
         <v>116.28</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>61.48</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>6</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>3487</v>
       </c>
       <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
         <v>174</v>
       </c>
-      <c r="D84">
-        <v>3</v>
-      </c>
       <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
         <v>116.5</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>68.930000000000007</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>6</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>7824</v>
       </c>
       <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
         <v>175</v>
       </c>
-      <c r="D85">
-        <v>3</v>
-      </c>
       <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
         <v>117.25</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>66.13</v>
       </c>
-      <c r="G85">
-        <v>7</v>
-      </c>
       <c r="H85">
+        <v>7</v>
+      </c>
+      <c r="I85">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>5748</v>
       </c>
       <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
         <v>170</v>
       </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
       <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
         <v>118.02</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>61.01</v>
       </c>
-      <c r="G86">
-        <v>7</v>
-      </c>
       <c r="H86">
+        <v>7</v>
+      </c>
+      <c r="I86">
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
+        <v>4397</v>
+      </c>
+      <c r="C87">
         <v>0</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>175</v>
       </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
       <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
         <v>118.03</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>62.68</v>
       </c>
-      <c r="G87">
-        <v>7</v>
-      </c>
       <c r="H87">
+        <v>7</v>
+      </c>
+      <c r="I87">
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
+        <v>4961</v>
+      </c>
+      <c r="C88">
         <v>0</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>192</v>
       </c>
-      <c r="D88">
-        <v>3</v>
-      </c>
       <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
         <v>119.06</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>80.540000000000006</v>
       </c>
-      <c r="G88">
-        <v>8</v>
-      </c>
       <c r="H88">
+        <v>8</v>
+      </c>
+      <c r="I88">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>3748</v>
       </c>
       <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
         <v>178</v>
       </c>
-      <c r="D89">
-        <v>3</v>
-      </c>
       <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
         <v>119.09</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>72.290000000000006</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>6</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
+        <v>3717</v>
+      </c>
+      <c r="C90">
         <v>0</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>195</v>
       </c>
-      <c r="D90">
-        <v>3</v>
-      </c>
       <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
         <v>119.2</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>93.36</v>
       </c>
-      <c r="G90">
-        <v>8</v>
-      </c>
       <c r="H90">
+        <v>8</v>
+      </c>
+      <c r="I90">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>9261</v>
       </c>
       <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
         <v>175</v>
       </c>
-      <c r="D91">
-        <v>3</v>
-      </c>
       <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
         <v>119.68</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>65.02</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>5</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>7625</v>
       </c>
       <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
         <v>159</v>
       </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
       <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
         <v>121.24</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>46.06</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>6</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>4766</v>
       </c>
       <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
         <v>163</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
       <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
         <v>121.48</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>45.7</v>
       </c>
-      <c r="G93">
-        <v>8</v>
-      </c>
       <c r="H93">
+        <v>8</v>
+      </c>
+      <c r="I93">
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>3101</v>
       </c>
       <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
         <v>174</v>
       </c>
-      <c r="D94">
-        <v>3</v>
-      </c>
       <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
         <v>121.5</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>70.87</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>10</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
+        <v>4261</v>
+      </c>
+      <c r="C95">
         <v>0</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>183</v>
       </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
       <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
         <v>122.95</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>75.55</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>5</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>6267</v>
       </c>
       <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
         <v>179</v>
       </c>
-      <c r="D96">
-        <v>3</v>
-      </c>
       <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
         <v>124.27</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>76.36</v>
       </c>
-      <c r="G96">
-        <v>8</v>
-      </c>
       <c r="H96">
+        <v>8</v>
+      </c>
+      <c r="I96">
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
+        <v>8874</v>
+      </c>
+      <c r="C97">
         <v>0</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>181</v>
       </c>
-      <c r="D97">
-        <v>2</v>
-      </c>
       <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
         <v>124.3</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>79.44</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>9</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>4300</v>
       </c>
       <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
         <v>175</v>
       </c>
-      <c r="D98">
-        <v>3</v>
-      </c>
       <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
         <v>124.72</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>72.489999999999995</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>9</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>6656</v>
       </c>
       <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
         <v>176</v>
       </c>
-      <c r="D99">
-        <v>3</v>
-      </c>
       <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
         <v>125.47</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>70.02</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>9</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>9436</v>
       </c>
       <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
         <v>169</v>
       </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
       <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
         <v>125.96</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>63.37</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>10</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>9634</v>
       </c>
       <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
         <v>179</v>
       </c>
-      <c r="D101">
-        <v>3</v>
-      </c>
       <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
         <v>126.94</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>77.17</v>
       </c>
-      <c r="G101">
-        <v>8</v>
-      </c>
       <c r="H101">
+        <v>8</v>
+      </c>
+      <c r="I101">
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
+        <v>5821</v>
+      </c>
+      <c r="C102">
         <v>0</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>184</v>
       </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
       <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
         <v>126.98</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>85.22</v>
       </c>
-      <c r="G102">
-        <v>7</v>
-      </c>
       <c r="H102">
+        <v>7</v>
+      </c>
+      <c r="I102">
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
+        <v>6678</v>
+      </c>
+      <c r="C103">
         <v>0</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>189</v>
       </c>
-      <c r="D103">
-        <v>3</v>
-      </c>
       <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
         <v>127.13</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>90.7</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>9</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>6751</v>
       </c>
       <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
         <v>173</v>
       </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
       <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
         <v>127.69</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>66.95</v>
       </c>
-      <c r="G104">
-        <v>8</v>
-      </c>
       <c r="H104">
+        <v>8</v>
+      </c>
+      <c r="I104">
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>9951</v>
       </c>
       <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
         <v>172</v>
       </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
       <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
         <v>127.74</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>59.84</v>
       </c>
-      <c r="G105">
-        <v>8</v>
-      </c>
       <c r="H105">
+        <v>8</v>
+      </c>
+      <c r="I105">
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>9013</v>
       </c>
       <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
         <v>170</v>
       </c>
-      <c r="D106">
-        <v>2</v>
-      </c>
       <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
         <v>127.76</v>
       </c>
-      <c r="F106">
-        <v>-999</v>
-      </c>
       <c r="G106">
+        <v>-999</v>
+      </c>
+      <c r="H106">
         <v>10</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>8078</v>
       </c>
       <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
         <v>168</v>
       </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
       <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
         <v>129.26</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>67.47</v>
       </c>
-      <c r="G107">
-        <v>8</v>
-      </c>
       <c r="H107">
+        <v>8</v>
+      </c>
+      <c r="I107">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>5631</v>
       </c>
       <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
         <v>166</v>
       </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
       <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
         <v>129.77000000000001</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>54.5</v>
       </c>
-      <c r="G108">
-        <v>8</v>
-      </c>
       <c r="H108">
+        <v>8</v>
+      </c>
+      <c r="I108">
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>5711</v>
       </c>
       <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
         <v>172</v>
       </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
       <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
         <v>129.84</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>64.45</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>9</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
+        <v>9830</v>
+      </c>
+      <c r="C110">
         <v>0</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>183</v>
       </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
       <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
         <v>131.46</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>77.5</v>
       </c>
-      <c r="G110">
-        <v>7</v>
-      </c>
       <c r="H110">
+        <v>7</v>
+      </c>
+      <c r="I110">
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
+        <v>8794</v>
+      </c>
+      <c r="C111">
         <v>0</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>180</v>
       </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
       <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
         <v>131.96</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>77.09</v>
       </c>
-      <c r="G111">
-        <v>8</v>
-      </c>
       <c r="H111">
+        <v>8</v>
+      </c>
+      <c r="I111">
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>7516</v>
       </c>
       <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
         <v>179</v>
       </c>
-      <c r="D112">
-        <v>3</v>
-      </c>
       <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
         <v>132.75</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>77.13</v>
       </c>
-      <c r="G112">
-        <v>7</v>
-      </c>
       <c r="H112">
+        <v>7</v>
+      </c>
+      <c r="I112">
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>8446</v>
       </c>
       <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
         <v>162</v>
       </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
       <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
         <v>132.84</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>48.4</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>4</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>5737</v>
       </c>
       <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
         <v>171</v>
       </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
       <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
         <v>132.88</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>59</v>
       </c>
-      <c r="G114">
-        <v>7</v>
-      </c>
       <c r="H114">
+        <v>7</v>
+      </c>
+      <c r="I114">
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
+        <v>8380</v>
+      </c>
+      <c r="C115">
         <v>0</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>192</v>
       </c>
-      <c r="D115">
-        <v>3</v>
-      </c>
       <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115">
         <v>133.03</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>97.91</v>
       </c>
-      <c r="G115">
-        <v>7</v>
-      </c>
       <c r="H115">
+        <v>7</v>
+      </c>
+      <c r="I115">
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>8055</v>
       </c>
       <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
         <v>158</v>
       </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
       <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
         <v>133.61000000000001</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>51.68</v>
       </c>
-      <c r="G116">
-        <v>7</v>
-      </c>
       <c r="H116">
+        <v>7</v>
+      </c>
+      <c r="I116">
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>6761</v>
       </c>
       <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
         <v>170</v>
       </c>
-      <c r="D117">
-        <v>2</v>
-      </c>
       <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
         <v>133.84</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>59.12</v>
       </c>
-      <c r="G117">
-        <v>8</v>
-      </c>
       <c r="H117">
+        <v>8</v>
+      </c>
+      <c r="I117">
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
+        <v>6264</v>
+      </c>
+      <c r="C118">
         <v>0</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>187</v>
       </c>
-      <c r="D118">
-        <v>3</v>
-      </c>
       <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118">
         <v>134.83000000000001</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>88.36</v>
       </c>
-      <c r="G118">
-        <v>7</v>
-      </c>
       <c r="H118">
+        <v>7</v>
+      </c>
+      <c r="I118">
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>9734</v>
       </c>
       <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
         <v>172</v>
       </c>
-      <c r="D119">
-        <v>2</v>
-      </c>
       <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
         <v>135.07</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>64.37</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>4</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120">
+        <v>3671</v>
+      </c>
+      <c r="C120">
         <v>0</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>178</v>
       </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
       <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
         <v>135.91</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>69.78</v>
       </c>
-      <c r="G120">
-        <v>7</v>
-      </c>
       <c r="H120">
+        <v>7</v>
+      </c>
+      <c r="I120">
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>9712</v>
       </c>
       <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
         <v>174</v>
       </c>
-      <c r="D121">
-        <v>3</v>
-      </c>
       <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="F121">
         <v>136.87</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>69.69</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>6</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122">
+        <v>9294</v>
+      </c>
+      <c r="C122">
         <v>0</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>177</v>
       </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
       <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
         <v>138.53</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>69.53</v>
       </c>
-      <c r="G122">
-        <v>8</v>
-      </c>
       <c r="H122">
+        <v>8</v>
+      </c>
+      <c r="I122">
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>9689</v>
       </c>
       <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
         <v>175</v>
       </c>
-      <c r="D123">
-        <v>3</v>
-      </c>
       <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123">
         <v>141.5</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>69.33</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>6</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124">
+        <v>5344</v>
+      </c>
+      <c r="C124">
         <v>0</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>189</v>
       </c>
-      <c r="D124">
-        <v>3</v>
-      </c>
       <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
         <v>142.02000000000001</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>85.67</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>9</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>8614</v>
       </c>
       <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
         <v>173</v>
       </c>
-      <c r="D125">
-        <v>2</v>
-      </c>
       <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
         <v>142.34</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>64.400000000000006</v>
       </c>
-      <c r="G125">
-        <v>8</v>
-      </c>
       <c r="H125">
+        <v>8</v>
+      </c>
+      <c r="I125">
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>5813</v>
       </c>
       <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
         <v>169</v>
       </c>
-      <c r="D126">
-        <v>2</v>
-      </c>
       <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
         <v>143.34</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>67.73</v>
       </c>
-      <c r="G126">
-        <v>7</v>
-      </c>
       <c r="H126">
+        <v>7</v>
+      </c>
+      <c r="I126">
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>3120</v>
       </c>
       <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
         <v>161</v>
       </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
       <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
         <v>143.97</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>50.85</v>
       </c>
-      <c r="G127">
-        <v>7</v>
-      </c>
       <c r="H127">
+        <v>7</v>
+      </c>
+      <c r="I127">
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>3463</v>
       </c>
       <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
         <v>169</v>
       </c>
-      <c r="D128">
-        <v>2</v>
-      </c>
       <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128">
         <v>144.05000000000001</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>68.459999999999994</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>6</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>7150</v>
       </c>
       <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
         <v>171</v>
       </c>
-      <c r="D129">
-        <v>2</v>
-      </c>
       <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129">
         <v>144.38999999999999</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>63.05</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>6</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>7437</v>
       </c>
       <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
         <v>166</v>
       </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
       <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
         <v>145.18</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>53.11</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>4</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131">
+        <v>8068</v>
+      </c>
+      <c r="C131">
         <v>0</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>189</v>
       </c>
-      <c r="D131">
-        <v>3</v>
-      </c>
       <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="F131">
         <v>145.51</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>83.16</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>9</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>5937</v>
       </c>
       <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
         <v>168</v>
       </c>
-      <c r="D132">
-        <v>2</v>
-      </c>
       <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132">
         <v>146.66</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>68.22</v>
       </c>
-      <c r="G132">
-        <v>8</v>
-      </c>
       <c r="H132">
+        <v>8</v>
+      </c>
+      <c r="I132">
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
         <v>168</v>
       </c>
-      <c r="D133">
-        <v>2</v>
-      </c>
       <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133">
         <v>147.72</v>
       </c>
-      <c r="F133">
-        <v>-999</v>
-      </c>
       <c r="G133">
-        <v>8</v>
+        <v>-999</v>
       </c>
       <c r="H133">
+        <v>8</v>
+      </c>
+      <c r="I133">
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>6583</v>
       </c>
       <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
         <v>172</v>
       </c>
-      <c r="D134">
-        <v>2</v>
-      </c>
       <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134">
         <v>147.93</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>62.28</v>
       </c>
-      <c r="G134">
-        <v>8</v>
-      </c>
       <c r="H134">
+        <v>8</v>
+      </c>
+      <c r="I134">
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>8527</v>
       </c>
       <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
         <v>177</v>
       </c>
-      <c r="D135">
-        <v>3</v>
-      </c>
       <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135">
         <v>149.37</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>71.540000000000006</v>
       </c>
-      <c r="G135">
-        <v>7</v>
-      </c>
       <c r="H135">
+        <v>7</v>
+      </c>
+      <c r="I135">
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>3233</v>
       </c>
       <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
         <v>173</v>
       </c>
-      <c r="D136">
-        <v>2</v>
-      </c>
       <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136">
         <v>150.51</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>70.19</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>10</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>9802</v>
       </c>
       <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
         <v>169</v>
       </c>
-      <c r="D137">
-        <v>2</v>
-      </c>
       <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137">
         <v>150.91</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>63.69</v>
       </c>
-      <c r="G137">
-        <v>8</v>
-      </c>
       <c r="H137">
+        <v>8</v>
+      </c>
+      <c r="I137">
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>7155</v>
       </c>
       <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
         <v>169</v>
       </c>
-      <c r="D138">
-        <v>2</v>
-      </c>
       <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138">
         <v>152.47</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>61.27</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>9</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>6444</v>
       </c>
       <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
         <v>170</v>
       </c>
-      <c r="D139">
-        <v>2</v>
-      </c>
       <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
         <v>154.08000000000001</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>66.3</v>
       </c>
-      <c r="G139">
-        <v>7</v>
-      </c>
       <c r="H139">
+        <v>7</v>
+      </c>
+      <c r="I139">
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>7313</v>
       </c>
       <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
         <v>170</v>
       </c>
-      <c r="D140">
-        <v>2</v>
-      </c>
       <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140">
         <v>154.68</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>61.16</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>6</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>6793</v>
       </c>
       <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
         <v>182</v>
       </c>
-      <c r="D141">
-        <v>3</v>
-      </c>
       <c r="E141">
+        <v>3</v>
+      </c>
+      <c r="F141">
         <v>158.91999999999999</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>73.319999999999993</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>5</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>3277</v>
       </c>
       <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
         <v>173</v>
       </c>
-      <c r="D142">
-        <v>2</v>
-      </c>
       <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142">
         <v>159.83000000000001</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>64.72</v>
       </c>
-      <c r="G142">
-        <v>8</v>
-      </c>
       <c r="H142">
+        <v>8</v>
+      </c>
+      <c r="I142">
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>8190</v>
       </c>
       <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
         <v>174</v>
       </c>
-      <c r="D143">
-        <v>3</v>
-      </c>
       <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="F143">
         <v>162.5</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>68.34</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>5</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>3891</v>
       </c>
       <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
         <v>157</v>
       </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
       <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
         <v>162.52000000000001</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>59.96</v>
       </c>
-      <c r="G144">
-        <v>7</v>
-      </c>
       <c r="H144">
+        <v>7</v>
+      </c>
+      <c r="I144">
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>4906</v>
       </c>
       <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
         <v>180</v>
       </c>
-      <c r="D145">
-        <v>3</v>
-      </c>
       <c r="E145">
+        <v>3</v>
+      </c>
+      <c r="F145">
         <v>166.39</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>75.92</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>9</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>6153</v>
       </c>
       <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
         <v>170</v>
       </c>
-      <c r="D146">
-        <v>2</v>
-      </c>
       <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146">
         <v>166.39</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>70.05</v>
       </c>
-      <c r="G146">
-        <v>7</v>
-      </c>
       <c r="H146">
+        <v>7</v>
+      </c>
+      <c r="I146">
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>6643</v>
       </c>
       <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
         <v>168</v>
       </c>
-      <c r="D147">
-        <v>2</v>
-      </c>
       <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147">
         <v>166.96</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>64.97</v>
       </c>
-      <c r="G147">
-        <v>7</v>
-      </c>
       <c r="H147">
+        <v>7</v>
+      </c>
+      <c r="I147">
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>9442</v>
       </c>
       <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
         <v>168</v>
       </c>
-      <c r="D148">
-        <v>2</v>
-      </c>
       <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148">
         <v>173.98</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>66.88</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>9</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>5205</v>
       </c>
       <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
         <v>184</v>
       </c>
-      <c r="D149">
-        <v>3</v>
-      </c>
       <c r="E149">
+        <v>3</v>
+      </c>
+      <c r="F149">
         <v>174.17</v>
       </c>
-      <c r="F149">
-        <v>-999</v>
-      </c>
       <c r="G149">
-        <v>8</v>
+        <v>-999</v>
       </c>
       <c r="H149">
+        <v>8</v>
+      </c>
+      <c r="I149">
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>5138</v>
       </c>
       <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
         <v>175</v>
       </c>
-      <c r="D150">
-        <v>3</v>
-      </c>
       <c r="E150">
+        <v>3</v>
+      </c>
+      <c r="F150">
         <v>181.67</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>76.34</v>
       </c>
-      <c r="G150">
-        <v>8</v>
-      </c>
       <c r="H150">
+        <v>8</v>
+      </c>
+      <c r="I150">
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>4505</v>
       </c>
       <c r="C151">
-        <v>165</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
         <v>182.2</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>44.58</v>
       </c>
-      <c r="G151">
-        <v>7</v>
-      </c>
       <c r="H151">
+        <v>7</v>
+      </c>
+      <c r="I151">
         <v>28</v>
       </c>
     </row>
